--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gdf6-Bmpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gdf6-Bmpr2.xlsx
@@ -528,16 +528,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.09749966666666665</v>
+        <v>0.5039156666666667</v>
       </c>
       <c r="H2">
-        <v>0.292499</v>
+        <v>1.511747</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>40.70766766666667</v>
+        <v>29.52617166666667</v>
       </c>
       <c r="N2">
-        <v>122.123003</v>
+        <v>88.57851500000001</v>
       </c>
       <c r="O2">
-        <v>0.3776398983502007</v>
+        <v>0.3218391660320701</v>
       </c>
       <c r="P2">
-        <v>0.3776398983502007</v>
+        <v>0.3218391660320701</v>
       </c>
       <c r="Q2">
-        <v>3.968984028277444</v>
+        <v>14.87870047952278</v>
       </c>
       <c r="R2">
-        <v>35.72085625449699</v>
+        <v>133.908304315705</v>
       </c>
       <c r="S2">
-        <v>0.3776398983502007</v>
+        <v>0.3218391660320701</v>
       </c>
       <c r="T2">
-        <v>0.3776398983502007</v>
+        <v>0.3218391660320701</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +590,16 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.09749966666666665</v>
+        <v>0.5039156666666667</v>
       </c>
       <c r="H3">
-        <v>0.292499</v>
+        <v>1.511747</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>119.145069</v>
       </c>
       <c r="O3">
-        <v>0.3684312589831062</v>
+        <v>0.4328989896002822</v>
       </c>
       <c r="P3">
-        <v>0.3684312589831062</v>
+        <v>0.4328989896002822</v>
       </c>
       <c r="Q3">
-        <v>3.872201504158999</v>
+        <v>20.013022291727</v>
       </c>
       <c r="R3">
-        <v>34.849813537431</v>
+        <v>180.117200625543</v>
       </c>
       <c r="S3">
-        <v>0.3684312589831062</v>
+        <v>0.4328989896002822</v>
       </c>
       <c r="T3">
-        <v>0.3684312589831062</v>
+        <v>0.4328989896002822</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,16 +652,16 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.09749966666666665</v>
+        <v>0.5039156666666667</v>
       </c>
       <c r="H4">
-        <v>0.292499</v>
+        <v>1.511747</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>27.37224266666666</v>
+        <v>22.50081433333333</v>
       </c>
       <c r="N4">
-        <v>82.11672799999999</v>
+        <v>67.502443</v>
       </c>
       <c r="O4">
-        <v>0.253928842666693</v>
+        <v>0.2452618443676477</v>
       </c>
       <c r="P4">
-        <v>0.253928842666693</v>
+        <v>0.2452618443676476</v>
       </c>
       <c r="Q4">
-        <v>2.66878453591911</v>
+        <v>11.33851285532456</v>
       </c>
       <c r="R4">
-        <v>24.019060823272</v>
+        <v>102.046615697921</v>
       </c>
       <c r="S4">
-        <v>0.253928842666693</v>
+        <v>0.2452618443676477</v>
       </c>
       <c r="T4">
-        <v>0.253928842666693</v>
+        <v>0.2452618443676476</v>
       </c>
     </row>
   </sheetData>
